--- a/Excel/Exercicios_Excel_Intermadiário.xlsx
+++ b/Excel/Exercicios_Excel_Intermadiário.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F35EF-EF89-4AE6-B1E8-20370178102A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F18873-8185-47A8-BF48-BC083111FFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="903" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="903" firstSheet="8" activeTab="12" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor ARRUMAR" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="147">
   <si>
     <t>rose@gmail.com</t>
   </si>
@@ -124,18 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Nicolas    Pereira                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         LEONARDO          ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIANE              MOREIRA             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NICOLAS    PEREIRA                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          AMANDA MARTINS              </t>
   </si>
   <si>
     <t>PAULO         SANTOS</t>
@@ -722,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +810,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -913,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,6 +963,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1292,71 +1291,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C948934-2D39-404B-999F-89DCE3DA9AB4}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.765625" style="1"/>
+    <col min="5" max="5" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="2"/>
       <c r="E7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>148.56</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>146.13999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>224.14</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1508,71 +1507,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FF225C-CFBB-42E6-A9C0-929C53648FE7}">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.765625" style="1"/>
+    <col min="5" max="5" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="2"/>
       <c r="E7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1586,85 +1585,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8">
         <v>89.99</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E10" s="18" t="str">
+        <f>TRIM(PROPER(B10))</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="F10" s="19">
+        <f>C10</f>
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8">
         <v>69.989999999999995</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E11" s="18" t="str">
+        <f t="shared" ref="E11:E17" si="0">TRIM(PROPER(B11))</f>
+        <v>Eliane Moreira</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" ref="F11:F17" si="1">C11</f>
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8">
         <v>153.4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8">
         <v>148.56</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda Martins</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>148.56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8">
         <v>146.13999999999999</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>146.13999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
         <v>224.14</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline Rosa Alves</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>224.14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <v>150.5</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Maria</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <v>248.73</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos Moreira Pires</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>248.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1676,217 +1723,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A4C0DB-0650-4380-93EE-3779360CFF9B}">
   <dimension ref="B1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="17">
+        <f>AVERAGE(C7*1,D7*1,E7*1,F7*1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="G8" s="17">
+        <f t="shared" ref="G8:G14" si="0">AVERAGE(C8*1,D8*1,E8*1,F8*1)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="B14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1899,143 +1970,170 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="56.109375" style="13" customWidth="1"/>
+    <col min="2" max="3" width="56.07421875" style="13" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="O5" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="O5" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="O6" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="O6" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(B9,"Roupa","Produto"),"Calça","Meia")</f>
+        <v>Produto Feminino Meia</v>
+      </c>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f t="shared" ref="C10:C17" si="0">SUBSTITUTE(SUBSTITUTE(B10,"Roupa","Produto"),"Calça","Meia")</f>
+        <v>Meia Feminina Produto</v>
+      </c>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina</v>
+      </c>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermuda Masculino</v>
+      </c>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Produto Jogger Meia</v>
+      </c>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaqueta Masculina Preta</v>
+      </c>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolsa de Trabalho</v>
+      </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="2:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
       <c r="D17" s="18"/>
     </row>
   </sheetData>
@@ -2048,31 +2146,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61D5F7E-5C83-4766-B499-260B0D5ED2A8}">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="55.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="51.4609375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="55.07421875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2080,19 +2178,19 @@
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -2101,10 +2199,10 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -2113,164 +2211,218 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G7" s="18" t="str">
+        <f>TRIM(PROPER(B7)&amp;" "&amp;LOWER(C7)&amp;" "&amp;LOWER(D7)&amp;" "&amp;LOWER(E7)&amp;" "&amp;LOWER(F7))</f>
+        <v>Tênis feminino</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f>TRIM(CONCATENATE(PROPER(B7)," ",LOWER(C7)," ",LOWER(D7)," ",LOWER(E7)," ",LOWER(F7)))</f>
+        <v>Tênis feminino</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G8" s="18" t="str">
+        <f t="shared" ref="G8:G15" si="0">TRIM(PROPER(B8)&amp;" "&amp;LOWER(C8)&amp;" "&amp;LOWER(D8)&amp;" "&amp;LOWER(E8)&amp;" "&amp;LOWER(F8))</f>
+        <v>Calça feminina jogger</v>
+      </c>
+      <c r="H8" s="18" t="str">
+        <f t="shared" ref="H8:H15" si="1">TRIM(CONCATENATE(PROPER(B8)," ",LOWER(C8)," ",LOWER(D8)," ",LOWER(E8)," ",LOWER(F8)))</f>
+        <v>Calça feminina jogger</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa masculina</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa masculina</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermuda masculino</v>
+      </c>
+      <c r="H10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bermuda masculino</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa masculina festa balada</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa masculina festa balada</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bota masculina</v>
+      </c>
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bota masculina</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaqueta masculina preta</v>
+      </c>
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaqueta masculina preta</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolsa de trabalho</v>
+      </c>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bolsa de trabalho</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kit de pinceis de maquiagem</v>
+      </c>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kit de pinceis de maquiagem</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2281,58 +2433,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9C339-66FA-44A7-9E6C-5965EE48843A}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E1"/>
       <c r="F1" s="1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2343,98 +2495,170 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="20">
+        <f>SEARCH("@",B7,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="20">
+        <f>SEARCH(".",B7,C7)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>LEFT(B7,C7 -1)</f>
+        <v>rose</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f>MID(B7,C7,100)</f>
+        <v>@gmail.com</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:C12" si="0">SEARCH("@",B8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" ref="D8:D12" si="1">SEARCH(".",B8,C8)</f>
+        <v>14</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" ref="E8:E12" si="2">LEFT(B8,C8 -1)</f>
+        <v>allan</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f t="shared" ref="F8:F12" si="3">MID(B8,C8,100)</f>
+        <v>@hotmail.com</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>roberto23</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>@yahoo.com</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>aninha98</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>@gmail.com</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C11" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>claudia.souza</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>@hotmail.com</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>ste99</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>@yahoo.com</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{CDA66899-C2CE-4732-87E3-ECF5316B9A37}"/>
     <hyperlink ref="B8" r:id="rId2" xr:uid="{B14C358C-8355-4E50-9227-A39D48744C53}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{3B3F6C2E-946A-40B6-BC1D-02B7BAEB0DC0}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{2074730A-6ACF-457A-87D1-0E5979A3F618}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{4643CAF5-82AF-4BD0-90AF-2FAFE054D7A5}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{412695B5-9DAE-47BB-A1D9-4BD20B3EFA5F}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{2074730A-6ACF-457A-87D1-0E5979A3F618}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{4643CAF5-82AF-4BD0-90AF-2FAFE054D7A5}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{412695B5-9DAE-47BB-A1D9-4BD20B3EFA5F}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{3B3F6C2E-946A-40B6-BC1D-02B7BAEB0DC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId7"/>
@@ -2449,79 +2673,79 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F1" s="1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2533,9 +2757,9 @@
       <c r="I7" s="1"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2544,9 +2768,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -2568,98 +2792,98 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.4609375" customWidth="1"/>
+    <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F1" s="1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2669,12 +2893,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -2685,41 +2909,41 @@
       <c r="I9" s="1"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="P11" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2727,9 +2951,9 @@
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -2737,7 +2961,7 @@
       <c r="F15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1"/>
@@ -2755,67 +2979,67 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.765625" style="1"/>
+    <col min="5" max="5" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="2"/>
       <c r="E7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2829,9 +3053,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8">
         <v>89.99</v>
@@ -2845,9 +3069,9 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8">
         <v>69.989999999999995</v>
@@ -2861,9 +3085,9 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8">
         <v>153.4</v>
@@ -2877,9 +3101,9 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8">
         <v>148.56</v>
@@ -2893,9 +3117,9 @@
         <v>148.56</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8">
         <v>146.13999999999999</v>
@@ -2909,9 +3133,9 @@
         <v>146.13999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
         <v>224.14</v>
@@ -2925,9 +3149,9 @@
         <v>224.14</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <v>150.5</v>
@@ -2941,9 +3165,9 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <v>248.73</v>
@@ -2971,77 +3195,77 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.07421875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -3064,9 +3288,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
@@ -3089,9 +3313,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" s="11">
         <v>5</v>
@@ -3114,9 +3338,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="11">
         <v>9</v>
@@ -3139,9 +3363,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
@@ -3164,9 +3388,9 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -3189,9 +3413,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" s="11">
         <v>10</v>
@@ -3214,9 +3438,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="11">
         <v>8</v>
@@ -3254,22 +3478,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="56.109375" style="13" customWidth="1"/>
+    <col min="2" max="3" width="56.07421875" style="13" customWidth="1"/>
     <col min="4" max="5" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3277,7 +3501,7 @@
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3285,57 +3509,57 @@
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="O5" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>SUBSTITUTE(B9,"Calça","Meia")</f>
@@ -3352,9 +3576,9 @@
         <v>Produto CURSO Meia</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B10" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" s="22" t="str">
         <f>SUBSTITUTE(B10,"Calça","Meia")</f>
@@ -3371,7 +3595,7 @@
         <v>Meia Feminina Produto</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -3388,9 +3612,9 @@
         <v>Camisa Masculina</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B12" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>SUBSTITUTE(B12,"Calça","Meia")</f>
@@ -3405,7 +3629,7 @@
         <v>Bermuda Masculino CURSO</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3422,9 +3646,9 @@
         <v>Camisa Masculina Festa Balada</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B14" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3439,7 +3663,7 @@
         <v>Produto Jogger Meia</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -3456,7 +3680,7 @@
         <v>Jaqueta Masculina Preta</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -3473,7 +3697,7 @@
         <v>Bolsa de Trabalho</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
@@ -3505,27 +3729,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="55.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="51.4609375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="55.07421875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3533,19 +3757,19 @@
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -3554,10 +3778,10 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -3566,38 +3790,38 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3627,15 +3851,15 @@
         <v xml:space="preserve">Tênis Feminino   </v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3664,12 +3888,12 @@
         <v xml:space="preserve">Calça Feminina Jogger  </v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3691,12 +3915,12 @@
         <v xml:space="preserve">Camisa Masculina   </v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3714,18 +3938,18 @@
         <v xml:space="preserve">Bermuda Masculino   </v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="18" t="str">
@@ -3741,12 +3965,12 @@
         <v xml:space="preserve">Camisa Masculina Festa Balada </v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3764,15 +3988,15 @@
         <v xml:space="preserve">Bota Masculina   </v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -3789,15 +4013,15 @@
         <v xml:space="preserve">Jaqueta Masculina Preta  </v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3814,21 +4038,21 @@
         <v xml:space="preserve">Bolsa De Trabalho  </v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G15" s="18" t="str">
         <f t="shared" si="2"/>
@@ -3857,54 +4081,54 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="7" max="7" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E1"/>
       <c r="F1" s="1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3915,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -3951,10 +4175,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
@@ -3978,10 +4202,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -4005,7 +4229,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -4029,7 +4253,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
@@ -4050,7 +4274,7 @@
         <v>hotmail</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4094,79 +4318,79 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F1" s="1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -4187,9 +4411,9 @@
       <c r="I7" s="1"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="20">
         <f>FIND(":",B8,1)</f>
@@ -4207,12 +4431,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="20">
-        <f t="shared" ref="C8:C9" si="2">FIND(":",B9,1)</f>
+        <f t="shared" ref="C9" si="2">FIND(":",B9,1)</f>
         <v>5</v>
       </c>
       <c r="D9" s="20" t="str">
@@ -4241,98 +4465,98 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.4609375" customWidth="1"/>
+    <col min="7" max="7" width="33.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F1" s="1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F3" s="1"/>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="20">
         <f>FIND(":",B8,1)</f>
@@ -4357,12 +4581,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="20">
         <f>FIND(":",B9,1)</f>
@@ -4388,43 +4612,43 @@
       <c r="I9" s="1"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="P11" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>LEFT(B14,3)</f>
@@ -4443,9 +4667,9 @@
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>LEFT(B15,3)</f>
@@ -4464,7 +4688,7 @@
       <c r="F15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1"/>
@@ -4479,71 +4703,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0B185F-9528-48D9-987D-20BADA2B920B}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.765625" style="1"/>
+    <col min="5" max="5" width="52.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="2"/>
       <c r="E7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4557,85 +4781,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8">
         <v>89.99</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E10" s="18" t="str">
+        <f>TRIM(B10)</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="F10" s="19">
+        <f>C10</f>
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8">
         <v>69.989999999999995</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E11" s="18" t="str">
+        <f t="shared" ref="E11:E17" si="0">TRIM(B11)</f>
+        <v>Eliane Moreira</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" ref="F11:F17" si="1">C11</f>
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8">
         <v>153.4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8">
         <v>148.56</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda Martins</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>148.56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8">
         <v>146.13999999999999</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>146.13999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="8">
         <v>224.14</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline Rosa Alves</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>224.14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8">
         <v>150.5</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Maria</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="8">
         <v>248.73</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos Moreira Pires</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>248.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Excel/Exercicios_Excel_Intermadiário.xlsx
+++ b/Excel/Exercicios_Excel_Intermadiário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F18873-8185-47A8-BF48-BC083111FFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBED180-9399-42FB-9C1A-3F9A12FC48F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="903" firstSheet="8" activeTab="12" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="903" firstSheet="11" activeTab="15" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor ARRUMAR" sheetId="8" r:id="rId1"/>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>depois na mesma formula, coloque os separadores de ponto e traço entre os números</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>=TRIM(B10)</t>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>Etapa 3</t>
+  </si>
+  <si>
+    <t>Telefone: 45651101</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +967,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1320,7 +1323,7 @@
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -1330,7 +1333,7 @@
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -1536,7 +1539,7 @@
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
@@ -1546,7 +1549,7 @@
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
@@ -1759,7 +1762,7 @@
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
@@ -1768,7 +1771,7 @@
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
@@ -1793,7 +1796,7 @@
     </row>
     <row r="7" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>37</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="8" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>39</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="9" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>41</v>
@@ -1856,7 +1859,7 @@
     </row>
     <row r="10" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>42</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="11" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>40</v>
@@ -1898,7 +1901,7 @@
     </row>
     <row r="12" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>41</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="13" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>39</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="14" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>38</v>
@@ -2010,7 +2013,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2022,7 +2025,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="O5" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2032,7 +2035,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="O6" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2146,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61D5F7E-5C83-4766-B499-260B0D5ED2A8}">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2185,7 +2188,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2199,7 +2202,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2211,7 +2214,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2433,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9C339-66FA-44A7-9E6C-5965EE48843A}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2472,7 +2475,7 @@
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2481,7 +2484,7 @@
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2504,7 +2507,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2520,18 +2523,18 @@
         <v>11</v>
       </c>
       <c r="E7" s="20" t="str">
-        <f>LEFT(B7,C7 -1)</f>
-        <v>rose</v>
+        <f>MID(B7,C7+1,D7-C7-1)</f>
+        <v>gmail</v>
       </c>
       <c r="F7" s="20" t="str">
-        <f>MID(B7,C7,100)</f>
-        <v>@gmail.com</v>
+        <f>MID(B7,SEARCH("@",B7,1)+1,SEARCH(".",B7,SEARCH("@",B7,1))-SEARCH("@",B7,1)-1)</f>
+        <v>gmail</v>
       </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2547,18 +2550,18 @@
         <v>14</v>
       </c>
       <c r="E8" s="20" t="str">
-        <f t="shared" ref="E8:E12" si="2">LEFT(B8,C8 -1)</f>
-        <v>allan</v>
+        <f t="shared" ref="E8:E12" si="2">MID(B8,C8+1,D8-C8-1)</f>
+        <v>hotmail</v>
       </c>
       <c r="F8" s="20" t="str">
-        <f t="shared" ref="F8:F12" si="3">MID(B8,C8,100)</f>
-        <v>@hotmail.com</v>
+        <f t="shared" ref="F8:F12" si="3">MID(B8,SEARCH("@",B8,1)+1,SEARCH(".",B8,SEARCH("@",B8,1))-SEARCH("@",B8,1)-1)</f>
+        <v>hotmail</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2575,11 +2578,11 @@
       </c>
       <c r="E9" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>roberto23</v>
+        <v>yahoo</v>
       </c>
       <c r="F9" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>@yahoo.com</v>
+        <v>yahoo</v>
       </c>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
@@ -2599,11 +2602,11 @@
       </c>
       <c r="E10" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>aninha98</v>
+        <v>gmail</v>
       </c>
       <c r="F10" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>@gmail.com</v>
+        <v>gmail</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
@@ -2623,11 +2626,11 @@
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>claudia.souza</v>
+        <v>hotmail</v>
       </c>
       <c r="F11" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>@hotmail.com</v>
+        <v>hotmail</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2644,11 +2647,11 @@
       </c>
       <c r="E12" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>ste99</v>
+        <v>yahoo</v>
       </c>
       <c r="F12" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>@yahoo.com</v>
+        <v>yahoo</v>
       </c>
     </row>
   </sheetData>
@@ -2669,14 +2672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA701A8-CA7D-4F56-B933-72CE377C9670}">
   <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="57.53515625" customWidth="1"/>
-    <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.765625" bestFit="1" customWidth="1"/>
@@ -2700,7 +2703,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2712,7 +2715,7 @@
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -2722,7 +2725,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -2742,16 +2745,25 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="20">
+        <f>FIND(":",B7)+2</f>
+        <v>11</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>MID(B7,C7,100)</f>
+        <v>4554-1101</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>MID(B7,FIND(":",B7)+2,100)</f>
+        <v>4554-1101</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2761,9 +2773,18 @@
       <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:C9" si="0">FIND(":",B8)+2</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" ref="D8:D9" si="1">MID(B8,C8,100)</f>
+        <v>123.456.789-10</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" ref="E8:E9" si="2">MID(B8,FIND(":",B8)+2,100)</f>
+        <v>123.456.789-10</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2772,9 +2793,18 @@
       <c r="B9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>06.990.590/0001-23</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>06.990.590/0001-23</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2788,17 +2818,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FB5D8F-5564-4B6D-BCCF-3DB50FAF5A4D}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.53515625" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" customWidth="1"/>
     <col min="3" max="3" width="22.23046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.4609375" customWidth="1"/>
+    <col min="4" max="4" width="24.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.61328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2819,7 +2849,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2831,7 +2861,7 @@
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2843,7 +2873,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -2853,7 +2883,7 @@
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2867,7 +2897,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>104</v>
@@ -2878,45 +2908,75 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="C8" s="20">
+        <f>FIND(":",B8)+2</f>
+        <v>11</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>MID(B8,C8,100)</f>
+        <v>45651101</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f>MID(B8,FIND(":",B8)+2,100)</f>
+        <v>45651101</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f>MID(E8,1,4)&amp;"-"&amp;MID(E8,5,4)</f>
+        <v>4565-1101</v>
+      </c>
+      <c r="G8" s="20" t="str">
+        <f>MID(MID(B8,FIND(":",B8)+2,100),1,4)&amp;"-"&amp;MID(MID(B8,FIND(":",B8)+2,100),5,4)</f>
+        <v>4565-1101</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="20">
+        <f>FIND(":",B9)+2</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>MID(B9,C9,100)</f>
+        <v>12345678910</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f>MID(B9,FIND(":",B9)+2,100)</f>
+        <v>12345678910</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f>MID(E9,1,3)&amp;"."&amp;MID(E9,4,3)&amp;"."&amp;MID(E9,7,3)&amp;"-"&amp;MID(E9,10,2)</f>
+        <v>123.456.789-10</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>MID(MID(B9,FIND(":",B9)+2,100),1,3)&amp;"."&amp;MID(MID(B9,FIND(":",B9)+2,100),4,3)&amp;"."&amp;MID(MID(B9,FIND(":",B9)+2,100),7,3)&amp;"-"&amp;MID(MID(B9,FIND(":",B9)+2,100),10,2)</f>
+        <v>123.456.789-10</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="P11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2924,7 +2984,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -2938,15 +2998,21 @@
         <v>81</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="26"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="20" t="str">
+        <f>LEFT(B14,3)</f>
+        <v>Tel</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>IF(LEFT(B14,3)="CPF","É CPF",MID(MID(B8,FIND(":",B8)+2,100),1,4)&amp;"-"&amp;MID(MID(B8,FIND(":",B8)+2,100),5,4))</f>
+        <v>4565-1101</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
@@ -2955,8 +3021,14 @@
       <c r="B15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="20" t="str">
+        <f>LEFT(B15,3)</f>
+        <v>CPF</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>IF(LEFT(B15,3)="CPF",MID(MID(B15,FIND(":",B15)+2,100),1,3)&amp;"."&amp;MID(MID(B15,FIND(":",B15)+2,100),4,3)&amp;"."&amp;MID(MID(B15,FIND(":",B15)+2,100),7,3)&amp;"-"&amp;MID(MID(B15,FIND(":",B15)+2,100),10,2),"É telefone")</f>
+        <v>123.456.789-10</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="1"/>
@@ -3004,7 +3076,7 @@
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
@@ -3014,7 +3086,7 @@
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="26.15" x14ac:dyDescent="0.7">
@@ -3228,7 +3300,7 @@
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
@@ -3237,7 +3309,7 @@
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
@@ -3260,12 +3332,12 @@
         <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -3290,7 +3362,7 @@
     </row>
     <row r="8" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
@@ -3315,7 +3387,7 @@
     </row>
     <row r="9" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="11">
         <v>5</v>
@@ -3340,7 +3412,7 @@
     </row>
     <row r="10" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="11">
         <v>9</v>
@@ -3365,7 +3437,7 @@
     </row>
     <row r="11" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
@@ -3390,7 +3462,7 @@
     </row>
     <row r="12" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -3415,7 +3487,7 @@
     </row>
     <row r="13" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="11">
         <v>10</v>
@@ -3440,7 +3512,7 @@
     </row>
     <row r="14" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="11">
         <v>8</v>
@@ -3511,14 +3583,14 @@
     </row>
     <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3530,7 +3602,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="O5" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3540,7 +3612,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3554,7 +3626,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
@@ -3614,7 +3686,7 @@
     </row>
     <row r="12" spans="2:15" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>SUBSTITUTE(B12,"Calça","Meia")</f>
@@ -3764,7 +3836,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3778,7 +3850,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3790,7 +3862,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -3856,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>62</v>
@@ -4116,7 +4188,7 @@
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4125,7 +4197,7 @@
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4148,7 +4220,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4175,7 +4247,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4202,7 +4274,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4345,7 +4417,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4357,7 +4429,7 @@
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -4367,7 +4439,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4387,7 +4459,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="26.15" x14ac:dyDescent="0.7">
@@ -4492,7 +4564,7 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4504,7 +4576,7 @@
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4516,7 +4588,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -4526,7 +4598,7 @@
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4540,7 +4612,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>104</v>
@@ -4551,7 +4623,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4581,7 +4653,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4614,12 +4686,12 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="P11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4627,7 +4699,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4732,7 +4804,7 @@
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
@@ -4742,7 +4814,7 @@
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
